--- a/invoice_gen/TEMPLATE/HAPPY.xlsx
+++ b/invoice_gen/TEMPLATE/HAPPY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\automate invoice\invoice_gen\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPZ031127\Desktop\tools\inv_pkl_contract_creation - Copy\invoice_gen\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70D3E3-AAAE-4F45-AE22-A0CC07C626B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C97936-40CC-4DCD-ACA2-F5BDC0F28226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Contract!$A$1:$F$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Invoice!$A$1:$G$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Packing list'!$A$1:$I$29</definedName>
   </definedNames>
   <calcPr calcId="191029" fullPrecision="0"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>SALES CONTRACT</t>
   </si>
@@ -102,10 +102,6 @@
 CÔNG TY TNHH HAPPY FURNITURE ( VIỆT NAM) </t>
   </si>
   <si>
-    <t>NO.5,HUU NGHI AVENUE, VSIP, TINH PHONG COMMUNE, SON TINH DISTRICT, QUANG NGAI PROVINCE, VIETNAM
-Số 5, Đại Lộ Hữu Nghị, Khu công nghiệp Việt Nam, Singapore, Xã Tịnh Phong, Huyện Sơn Tịnh, tỉnh Quảng Ngãi, Việt Nam</t>
-  </si>
-  <si>
     <t>4300829902</t>
   </si>
   <si>
@@ -211,9 +207,6 @@
   </si>
   <si>
     <t>HAPPY FURNITURE (VIETNAM) CO.,LTD .</t>
-  </si>
-  <si>
-    <t>NO.5,HUU NGHI AVENUE, VSIP, TINH PHONG COMMUNE,SON TINH DISTRICT, QUANG NGAI PROVINCE, VIETNAM</t>
   </si>
   <si>
     <t>CONTACT: LEOHUNG TEL: 0084-0388087768</t>
@@ -252,12 +245,6 @@
   </si>
   <si>
     <t>T/T</t>
-  </si>
-  <si>
-    <t>NO.5,HUU NGHI AVENUE, VSIP, TINH PHONG COMMUNE,SON TINH DISTRICT,</t>
-  </si>
-  <si>
-    <t>QUANG NGAI PROVINCE, VIETNAM</t>
   </si>
   <si>
     <t>Sign &amp; Stamp</t>
@@ -341,6 +328,13 @@
   <si>
     <t>FCA: BAVET,SVAYRIENG</t>
   </si>
+  <si>
+    <t>NO.5,HUU NGHI AVENUE, VSIP, TINH PHONG COMMUNE, QUANG NGAI PROVINCE, VIETNAM
+Số 5, Đại Lộ Hữu Nghị, Khu công nghiệp Việt Nam, Singapore, Xã Tịnh Phong, Huyện Sơn Tịnh, tỉnh Quảng Ngãi, Việt Nam</t>
+  </si>
+  <si>
+    <t>NO.5,HUU NGHI AVENUE, VSIP, TINH PHONG COMMUNE, QUANG NGAI PROVINCE, VIETNAM</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +344,7 @@
     <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,51 +485,68 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -592,7 +603,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -662,111 +673,117 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -783,39 +800,46 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1097,344 +1121,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="48" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" style="48" customWidth="1"/>
-    <col min="7" max="16382" width="28.7109375" style="48" customWidth="1"/>
-    <col min="16383" max="16384" width="28.7109375" style="48"/>
+    <col min="1" max="1" width="24.42578125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="47" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="47" customWidth="1"/>
+    <col min="7" max="16382" width="28.7109375" style="47" customWidth="1"/>
+    <col min="16383" max="16384" width="28.7109375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="31" customFormat="1" ht="45.95" customHeight="1">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:6" s="30" customFormat="1" ht="45.95" customHeight="1">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" s="20" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-    </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" ht="27" customHeight="1">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="E3" s="33" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" s="30" customFormat="1" ht="27" customHeight="1">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="E3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="E4" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="30" customFormat="1" ht="25.5">
+      <c r="A5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" s="30" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="30" customFormat="1" ht="21.95" customHeight="1">
+      <c r="B7" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="30" customFormat="1" ht="25.5">
+      <c r="A8" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" s="30" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:6" s="30" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:6" s="30" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+    </row>
+    <row r="12" spans="1:6" s="36" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="E4" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" ht="25.5">
-      <c r="A5" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="60" t="s">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+    </row>
+    <row r="13" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" s="36" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" s="36" customFormat="1" ht="25.5">
+      <c r="A15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" spans="1:6" s="30" customFormat="1" ht="30.95" customHeight="1">
+      <c r="A16" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="1:6" s="30" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A17" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6" s="30" customFormat="1" ht="12.75">
+      <c r="A18" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:6" s="30" customFormat="1" ht="12.75">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" s="30" customFormat="1" ht="12.75">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" s="30" customFormat="1" ht="12.75">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" s="30" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="60"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="1:6" s="30" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A23" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+    </row>
+    <row r="24" spans="1:6" s="30" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" s="30" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A25" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-    </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" ht="21.95" customHeight="1">
-      <c r="B7" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" ht="25.5">
-      <c r="A8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:6" s="31" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-    </row>
-    <row r="12" spans="1:6" s="37" customFormat="1" ht="25.5">
-      <c r="A12" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-    </row>
-    <row r="13" spans="1:6" s="37" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:6" s="37" customFormat="1" ht="30" customHeight="1">
-      <c r="A14" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" s="37" customFormat="1" ht="25.5">
-      <c r="A15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-    </row>
-    <row r="16" spans="1:6" s="31" customFormat="1" ht="30.95" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:6" s="31" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A17" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-    </row>
-    <row r="18" spans="1:6" s="31" customFormat="1" ht="12.75">
-      <c r="A18" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6" s="31" customFormat="1" ht="12.75">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" spans="1:6" s="31" customFormat="1" ht="12.75">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" spans="1:6" s="31" customFormat="1" ht="12.75">
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="55"/>
-    </row>
-    <row r="22" spans="1:6" s="31" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="54"/>
-    </row>
-    <row r="23" spans="1:6" s="31" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A23" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-    </row>
-    <row r="24" spans="1:6" s="31" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-    </row>
-    <row r="25" spans="1:6" s="31" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A25" s="56" t="s">
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6" s="30" customFormat="1" ht="25.5">
+      <c r="A26" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="44" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+    </row>
+    <row r="27" spans="1:6" s="30" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A27" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+    </row>
+    <row r="28" spans="1:6" s="30" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A28" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="1:6" s="30" customFormat="1" ht="29.1" customHeight="1">
+      <c r="A29" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:6" s="30" customFormat="1" ht="29.1" customHeight="1">
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:6" s="30" customFormat="1" ht="116.65" customHeight="1">
+      <c r="A31" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-    </row>
-    <row r="26" spans="1:6" s="31" customFormat="1" ht="25.5">
-      <c r="A26" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-    </row>
-    <row r="27" spans="1:6" s="31" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A27" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-    </row>
-    <row r="28" spans="1:6" s="31" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A28" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-    </row>
-    <row r="29" spans="1:6" s="31" customFormat="1" ht="29.1" customHeight="1">
-      <c r="A29" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-    </row>
-    <row r="30" spans="1:6" s="31" customFormat="1" ht="29.1" customHeight="1">
-      <c r="E30" s="43"/>
-    </row>
-    <row r="31" spans="1:6" s="31" customFormat="1" ht="116.65" customHeight="1">
-      <c r="A31" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A23:D23"/>
@@ -1444,11 +1473,6 @@
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -1466,10 +1490,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="95" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15"/>
@@ -1490,125 +1514,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="A1" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
     </row>
     <row r="4" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-    </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A5" s="70" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:7" ht="39" customHeight="1">
-      <c r="A6" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
+      <c r="A6" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1">
       <c r="F7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="26"/>
       <c r="F8" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="B9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>46</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="15" customFormat="1" ht="22.5" customHeight="1">
       <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" ht="20.25" customHeight="1">
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" ht="15.75" customHeight="1">
@@ -1616,140 +1640,134 @@
     </row>
     <row r="13" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>50</v>
-      </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B14" s="27" t="s">
-        <v>64</v>
+      <c r="B14" s="79" t="s">
+        <v>75</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="80" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" s="15" customFormat="1" ht="25.5" customHeight="1">
+    <row r="16" spans="1:7" s="15" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="B16" s="15" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" s="15" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A17" s="27"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" s="15" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="27"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" s="15" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="27"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" s="15" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="27"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" s="15" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="F21" s="5"/>
+    <row r="21" spans="1:7" s="15" customFormat="1" ht="42" customHeight="1">
+      <c r="A21" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="21"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="A22" s="66" t="s">
+    <row r="22" spans="1:7" s="15" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A22" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="21"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" s="15" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A23" s="26" t="s">
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+    </row>
+    <row r="23" spans="1:7" s="15" customFormat="1" ht="57.4" customHeight="1">
+      <c r="A23" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" s="15" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-    </row>
-    <row r="24" spans="1:7" s="15" customFormat="1" ht="57.4" customHeight="1">
-      <c r="A24" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" s="15" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-    </row>
-    <row r="26" spans="1:7" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="A26" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-    </row>
-    <row r="27" spans="1:7" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="F27" s="5" t="s">
-        <v>37</v>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+    </row>
+    <row r="25" spans="1:7" s="15" customFormat="1" ht="27" customHeight="1">
+      <c r="A25" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+    </row>
+    <row r="26" spans="1:7" s="15" customFormat="1" ht="42" customHeight="1">
+      <c r="F26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" s="15" customFormat="1" ht="24" customHeight="1">
+      <c r="F27" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="F28" s="30" t="s">
-        <v>66</v>
-      </c>
+    <row r="28" spans="1:7" s="15" customFormat="1" ht="69.75" customHeight="1">
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" s="15" customFormat="1" ht="69.75" customHeight="1">
+    <row r="29" spans="1:7" s="15" customFormat="1" ht="42" customHeight="1">
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" s="15" customFormat="1" ht="42" customHeight="1">
-      <c r="G30" s="5"/>
-    </row>
+    <row r="30" spans="1:7" ht="27.75" customHeight="1"/>
     <row r="31" spans="1:7" ht="27.75" customHeight="1"/>
     <row r="32" spans="1:7" ht="27.75" customHeight="1"/>
-    <row r="33" ht="27.75" customHeight="1"/>
-    <row r="34" ht="24.75" customHeight="1"/>
+    <row r="33" ht="24.75" customHeight="1"/>
+    <row r="34" ht="21" customHeight="1"/>
     <row r="35" ht="21" customHeight="1"/>
     <row r="36" ht="21" customHeight="1"/>
     <row r="37" ht="21" customHeight="1"/>
@@ -1757,30 +1775,29 @@
     <row r="39" ht="21" customHeight="1"/>
     <row r="40" ht="21" customHeight="1"/>
     <row r="41" ht="21" customHeight="1"/>
-    <row r="42" ht="21" customHeight="1"/>
-    <row r="43" ht="25.5" customHeight="1"/>
+    <row r="42" ht="25.5" customHeight="1"/>
+    <row r="43" ht="21" customHeight="1"/>
     <row r="44" ht="21" customHeight="1"/>
     <row r="45" ht="21" customHeight="1"/>
     <row r="46" ht="21" customHeight="1"/>
     <row r="47" ht="21" customHeight="1"/>
-    <row r="48" ht="21" customHeight="1"/>
-    <row r="49" ht="17.25" customHeight="1"/>
-    <row r="61" ht="15" customHeight="1"/>
+    <row r="48" ht="17.25" customHeight="1"/>
+    <row r="60" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B22:G22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:G23"/>
   </mergeCells>
-  <conditionalFormatting sqref="J22:J33">
+  <conditionalFormatting sqref="J21:J32">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
     <cfRule type="uniqueValues" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
@@ -1798,7 +1815,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="27" customHeight="1"/>
@@ -1823,150 +1840,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="A1" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="27" customHeight="1">
-      <c r="A2" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="A2" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="27" customHeight="1">
-      <c r="A4" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="A4" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="27" customHeight="1">
-      <c r="A5" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="A5" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="27" customHeight="1">
-      <c r="A6" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
+      <c r="A6" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
-      <c r="H7" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="50" t="s">
-        <v>75</v>
+      <c r="H7" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="10"/>
       <c r="H8" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="51" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="27" customHeight="1">
       <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="27" customHeight="1">
       <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:11" ht="27" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="27" customHeight="1">
       <c r="A13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1976,44 +1993,44 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" ht="27" customHeight="1">
+      <c r="B15" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="27" customHeight="1">
+      <c r="B16" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="27" customHeight="1">
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="27" customHeight="1">
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="27" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B17" s="82" t="s">
+        <v>53</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -2041,57 +2058,57 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="5"/>
-      <c r="L21" s="76"/>
+      <c r="L21" s="70"/>
     </row>
     <row r="22" spans="1:12" ht="27" customHeight="1">
-      <c r="A22" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="74"/>
+      <c r="A22" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="5"/>
-      <c r="L22" s="76"/>
+      <c r="L22" s="70"/>
     </row>
     <row r="23" spans="1:12" ht="42" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+        <v>55</v>
+      </c>
+      <c r="B23" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
       <c r="L23" s="12"/>
     </row>
     <row r="24" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A24" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
+      <c r="A24" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="12"/>
     </row>
     <row r="25" spans="1:12" ht="27" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2106,10 +2123,10 @@
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1" ht="27" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="27" customHeight="1">
@@ -2119,8 +2136,8 @@
       <c r="H28" s="24"/>
     </row>
     <row r="30" spans="1:12" ht="27" customHeight="1">
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
     </row>
     <row r="31" spans="1:12" ht="27" customHeight="1">
       <c r="H31" s="7"/>
@@ -2129,18 +2146,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B23:I23"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B23:I23"/>
   </mergeCells>
   <conditionalFormatting sqref="N22:N34">
     <cfRule type="duplicateValues" priority="1" stopIfTrue="1"/>
